--- a/deployment/Omaha_Cal_Info_CE09OSPM_00003.xlsx
+++ b/deployment/Omaha_Cal_Info_CE09OSPM_00003.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\IRAD\IRAD 2015\Programs\OOI Phase 2\Post Delivery 7 support\Asset Management Data\ingestion-csvs_20151204\ingestion-csvs\CE_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12708" yWindow="-12" windowWidth="12516" windowHeight="12408" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="12705" yWindow="-15" windowWidth="12510" windowHeight="12405" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="67">
   <si>
     <t>Ref Des</t>
   </si>
@@ -165,16 +165,10 @@
     <t>OC1503D</t>
   </si>
   <si>
-    <t>CE09OSPM-SBS01-00-RTE000000</t>
-  </si>
-  <si>
     <t>CE09OSPM-WFP01-00-WFPENG000</t>
   </si>
   <si>
     <t>OSPM-00003-STC</t>
-  </si>
-  <si>
-    <t>OSPM-00003-RTE</t>
   </si>
   <si>
     <t>This serial number is a placekeeper used until the correct serial number is found or defined</t>
@@ -265,6 +259,9 @@
   </si>
   <si>
     <t>N00055</t>
+  </si>
+  <si>
+    <t>OL000374</t>
   </si>
 </sst>
 </file>
@@ -857,31 +854,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875"/>
-    <col min="3" max="3" width="39.44140625"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="24.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17.44140625"/>
-    <col min="8" max="8" width="18.6640625"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.88671875"/>
-    <col min="11" max="11" width="12.6640625"/>
-    <col min="12" max="12" width="51.6640625"/>
-    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875"/>
+    <col min="3" max="3" width="39.42578125"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="17.42578125"/>
+    <col min="8" max="8" width="18.7109375"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875"/>
+    <col min="11" max="11" width="12.7109375"/>
+    <col min="12" max="12" width="51.7109375"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="1027" width="8.6640625"/>
+    <col min="15" max="1027" width="8.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6">
+    <row r="1" spans="1:14" ht="25.5">
       <c r="A1" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -917,9 +914,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.6">
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>33</v>
@@ -940,10 +937,10 @@
         <v>42294</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="J2" s="2">
         <v>542</v>
@@ -973,34 +970,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31:E32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.88671875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="43.109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.33203125" style="5" customWidth="1"/>
-    <col min="10" max="1021" width="8.6640625" style="5"/>
-    <col min="1022" max="16384" width="9.109375" style="5"/>
+    <col min="5" max="5" width="12.7109375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="43.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="5" customWidth="1"/>
+    <col min="10" max="1021" width="8.7109375" style="5"/>
+    <col min="1022" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.6">
+    <row r="1" spans="1:12" ht="25.5">
       <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>10</v>
@@ -1009,7 +1006,7 @@
         <v>32</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>11</v>
@@ -1024,7 +1021,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="18" customFormat="1" ht="15.6">
+    <row r="2" spans="1:12" s="18" customFormat="1" ht="15.75">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1034,38 +1031,40 @@
       <c r="G2" s="16"/>
       <c r="H2" s="17"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:12">
       <c r="A3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
       <c r="F3" s="23" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="L3" s="12"/>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="L4" s="12"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>39</v>
@@ -1074,7 +1073,7 @@
         <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5">
         <v>110</v>
@@ -1085,13 +1084,14 @@
       <c r="H5" s="19">
         <v>46.850555</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="L5" s="12"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="12" t="s">
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>39</v>
@@ -1100,7 +1100,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6" s="5">
         <v>110</v>
@@ -1111,19 +1111,21 @@
       <c r="H6" s="19">
         <v>-124.9725</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="L6" s="12"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="G7" s="12"/>
       <c r="H7" s="20"/>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="L7" s="12"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>39</v>
@@ -1132,10 +1134,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="11" t="s">
         <v>14</v>
@@ -1143,13 +1145,14 @@
       <c r="H8" s="19">
         <v>46.850555</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
+      <c r="L8" s="12"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>39</v>
@@ -1158,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F9" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>15</v>
@@ -1169,13 +1172,14 @@
       <c r="H9" s="19">
         <v>-124.9725</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="L9" s="12"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>39</v>
@@ -1184,10 +1188,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F10" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>17</v>
@@ -1196,15 +1200,16 @@
         <v>2.9231E-4</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="L10" s="12"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>39</v>
@@ -1213,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F11" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>16</v>
@@ -1225,12 +1230,12 @@
         <v>-858.15</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:12">
       <c r="A12" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>39</v>
@@ -1239,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>18</v>
@@ -1251,12 +1256,12 @@
         <v>-3.8888999999999998E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:12">
       <c r="A13" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>39</v>
@@ -1265,10 +1270,10 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>19</v>
@@ -1277,12 +1282,12 @@
         <v>1.9353999999999999E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:12">
       <c r="A14" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>39</v>
@@ -1291,10 +1296,10 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11" t="s">
         <v>20</v>
@@ -1303,12 +1308,12 @@
         <v>-2.8588000000000001E-6</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:12">
       <c r="A15" s="11" t="s">
         <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>39</v>
@@ -1317,10 +1322,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="11" t="s">
         <v>21</v>
@@ -1329,7 +1334,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:12">
       <c r="A16" s="12"/>
       <c r="B16" s="12"/>
       <c r="G16" s="12"/>
@@ -1340,7 +1345,7 @@
         <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>39</v>
@@ -1349,19 +1354,19 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F17" s="5">
         <v>1030</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H17" s="20">
         <v>1.0760000000000001</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1369,7 +1374,7 @@
         <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>39</v>
@@ -1378,13 +1383,13 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F18" s="5">
         <v>1030</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H18" s="20">
         <v>124</v>
@@ -1395,7 +1400,7 @@
         <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>39</v>
@@ -1404,13 +1409,13 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F19" s="5">
         <v>1030</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H19" s="20">
         <v>700</v>
@@ -1421,7 +1426,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>39</v>
@@ -1430,13 +1435,13 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F20" s="5">
         <v>1030</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H20" s="20">
         <v>3.9E-2</v>
@@ -1447,7 +1452,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>39</v>
@@ -1456,7 +1461,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F21" s="5">
         <v>1030</v>
@@ -1473,7 +1478,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>39</v>
@@ -1482,7 +1487,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F22" s="5">
         <v>1030</v>
@@ -1499,7 +1504,7 @@
         <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>39</v>
@@ -1508,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F23" s="5">
         <v>1030</v>
@@ -1525,7 +1530,7 @@
         <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>39</v>
@@ -1534,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F24" s="5">
         <v>1030</v>
@@ -1551,7 +1556,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>39</v>
@@ -1560,7 +1565,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F25" s="5">
         <v>1030</v>
@@ -1577,7 +1582,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>39</v>
@@ -1586,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F26" s="5">
         <v>1030</v>
@@ -1609,7 +1614,7 @@
         <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>39</v>
@@ -1618,7 +1623,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F28" s="5">
         <v>20438</v>
@@ -1630,7 +1635,7 @@
         <v>1.2</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1638,7 +1643,7 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>39</v>
@@ -1647,7 +1652,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F29" s="5">
         <v>20438</v>
@@ -1659,7 +1664,7 @@
         <v>1.0000000000000001E-17</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1670,10 +1675,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>39</v>
@@ -1682,7 +1687,7 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F31" s="5">
         <v>100014</v>
@@ -1696,10 +1701,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>39</v>
@@ -1708,7 +1713,7 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F32" s="5">
         <v>100014</v>
@@ -1731,7 +1736,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>39</v>
@@ -1739,36 +1744,25 @@
       <c r="D34" s="5">
         <v>3</v>
       </c>
+      <c r="E34" t="s">
+        <v>66</v>
+      </c>
       <c r="F34" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="4"/>
       <c r="I34" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>44</v>
-      </c>
+      <c r="A35" s="12"/>
+      <c r="B35"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="12"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="10" t="s">
-        <v>45</v>
-      </c>
+      <c r="I35" s="10"/>
     </row>
     <row r="36" spans="1:9">
       <c r="G36" s="12"/>
